--- a/pred_ohlcv/54_21/2019-10-27 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 WTC ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>-7227.9244</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-7745.29</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2897.5038</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2919.477899999999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3110.4663</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3064.5674</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3795.3857</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3181.4057</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-425.9708999999998</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-319.8677999999998</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-454.4876999999998</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-172.1776999999998</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-172.1776999999998</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-548.8468999999998</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-630.2468999999998</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-815.7568999999997</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3318.9625</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-2790.5625</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2498.4229</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-2498.4229</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2450.0808</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3184.5757</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3184.5757</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3184.5757</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2598.5655</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2562.402</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2192.0569</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2192.0569</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1093.0942</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>4098.201000000001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>4056.291100000001</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3746.291100000001</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3905.134800000001</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 WTC ohlcv.xlsx
@@ -1380,7 +1380,7 @@
         <v>-14977.6793</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-6297.4992</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-7745.29</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2897.5038</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2919.477899999999</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3110.4663</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3064.5674</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3795.3857</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3181.4057</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-425.9708999999998</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-319.8677999999998</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-454.4876999999998</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-172.1776999999998</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-172.1776999999998</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-548.8468999999998</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-630.2468999999998</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-815.7568999999997</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3318.9625</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-2790.5625</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2498.4229</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-2498.4229</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2450.0808</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3184.5757</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3184.5757</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3184.5757</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2598.5655</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2562.402</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2192.0569</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2192.0569</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1093.0942</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3098.201</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>4098.201000000001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>4056.291100000001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3746.291100000001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3905.134800000001</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
